--- a/converter/data/xlsx/18.9. B SMJENA.XLSX
+++ b/converter/data/xlsx/18.9. B SMJENA.XLSX
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RASPORED 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="74">
   <si>
     <t>UTORAK</t>
   </si>
@@ -292,8 +287,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,7 +2098,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3047,6 +3042,48 @@
     <xf numFmtId="0" fontId="33" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3071,50 +3108,14 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
     <cellStyle name="Normalno 7" xfId="4"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -3122,14 +3123,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF0099FF"/>
       <color rgb="FF00B050"/>
-      <color rgb="FF0099FF"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFFD9CD"/>
       <color rgb="FFCC9900"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF996600"/>
     </mruColors>
@@ -3165,7 +3166,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3219,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3272,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4344,7 +4345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4386,7 +4387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4418,10 +4419,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4453,7 +4453,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4629,14 +4628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -4672,99 +4671,99 @@
     <col min="36" max="36" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="382" t="s">
+    <row r="1" spans="1:39" ht="27" thickBot="1">
+      <c r="A1" s="377" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="382"/>
-      <c r="P1" s="382"/>
-      <c r="Q1" s="382"/>
-      <c r="R1" s="382"/>
-      <c r="S1" s="382"/>
-      <c r="T1" s="382"/>
-      <c r="U1" s="382"/>
-      <c r="V1" s="382"/>
-      <c r="W1" s="382"/>
-      <c r="X1" s="382"/>
-      <c r="Y1" s="382"/>
-      <c r="Z1" s="382"/>
-      <c r="AA1" s="382"/>
-      <c r="AB1" s="382"/>
-      <c r="AC1" s="382"/>
-      <c r="AD1" s="382"/>
-      <c r="AE1" s="382"/>
-      <c r="AF1" s="382"/>
-      <c r="AG1" s="382"/>
-      <c r="AH1" s="382"/>
-      <c r="AI1" s="382"/>
-      <c r="AJ1" s="382"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="377"/>
+      <c r="Q1" s="377"/>
+      <c r="R1" s="377"/>
+      <c r="S1" s="377"/>
+      <c r="T1" s="377"/>
+      <c r="U1" s="377"/>
+      <c r="V1" s="377"/>
+      <c r="W1" s="377"/>
+      <c r="X1" s="377"/>
+      <c r="Y1" s="377"/>
+      <c r="Z1" s="377"/>
+      <c r="AA1" s="377"/>
+      <c r="AB1" s="377"/>
+      <c r="AC1" s="377"/>
+      <c r="AD1" s="377"/>
+      <c r="AE1" s="377"/>
+      <c r="AF1" s="377"/>
+      <c r="AG1" s="377"/>
+      <c r="AH1" s="377"/>
+      <c r="AI1" s="377"/>
+      <c r="AJ1" s="377"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="386" t="s">
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="381" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="384"/>
-      <c r="K2" s="384"/>
-      <c r="L2" s="384"/>
-      <c r="M2" s="384"/>
-      <c r="N2" s="384"/>
-      <c r="O2" s="387"/>
-      <c r="P2" s="386" t="s">
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="382"/>
+      <c r="P2" s="381" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="384"/>
-      <c r="R2" s="384"/>
-      <c r="S2" s="384"/>
-      <c r="T2" s="384"/>
-      <c r="U2" s="384"/>
-      <c r="V2" s="387"/>
-      <c r="W2" s="386" t="s">
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
+      <c r="S2" s="379"/>
+      <c r="T2" s="379"/>
+      <c r="U2" s="379"/>
+      <c r="V2" s="382"/>
+      <c r="W2" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="384"/>
-      <c r="Y2" s="384"/>
-      <c r="Z2" s="384"/>
-      <c r="AA2" s="384"/>
-      <c r="AB2" s="384"/>
-      <c r="AC2" s="385"/>
-      <c r="AD2" s="383" t="s">
+      <c r="X2" s="379"/>
+      <c r="Y2" s="379"/>
+      <c r="Z2" s="379"/>
+      <c r="AA2" s="379"/>
+      <c r="AB2" s="379"/>
+      <c r="AC2" s="380"/>
+      <c r="AD2" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="388"/>
-      <c r="AF2" s="388"/>
-      <c r="AG2" s="388"/>
-      <c r="AH2" s="388"/>
-      <c r="AI2" s="388"/>
-      <c r="AJ2" s="389"/>
+      <c r="AE2" s="383"/>
+      <c r="AF2" s="383"/>
+      <c r="AG2" s="383"/>
+      <c r="AH2" s="383"/>
+      <c r="AI2" s="383"/>
+      <c r="AJ2" s="384"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4875,7 +4874,7 @@
       </c>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="296" t="s">
         <v>50</v>
       </c>
@@ -4934,7 +4933,7 @@
       </c>
       <c r="AK4" s="21"/>
     </row>
-    <row r="5" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="26.25" customHeight="1" thickBot="1">
       <c r="A5" s="114" t="s">
         <v>51</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="AJ5" s="247"/>
       <c r="AK5" s="96"/>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="22.5" customHeight="1">
       <c r="A6" s="111" t="s">
         <v>40</v>
       </c>
@@ -5015,8 +5014,12 @@
       <c r="M6" s="37">
         <v>16</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="204"/>
+      <c r="N6" s="372" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="373" t="s">
+        <v>55</v>
+      </c>
       <c r="P6" s="335"/>
       <c r="Q6" s="336"/>
       <c r="R6" s="336"/>
@@ -5040,7 +5043,7 @@
       <c r="AJ6" s="247"/>
       <c r="AK6" s="21"/>
     </row>
-    <row r="7" spans="1:39" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="24.75" customHeight="1" thickBot="1">
       <c r="A7" s="294" t="s">
         <v>5</v>
       </c>
@@ -5061,10 +5064,10 @@
       <c r="P7" s="297"/>
       <c r="Q7" s="55"/>
       <c r="R7" s="342"/>
-      <c r="S7" s="379"/>
-      <c r="T7" s="380"/>
-      <c r="U7" s="380"/>
-      <c r="V7" s="381"/>
+      <c r="S7" s="374"/>
+      <c r="T7" s="375"/>
+      <c r="U7" s="375"/>
+      <c r="V7" s="376"/>
       <c r="W7" s="308" t="s">
         <v>54</v>
       </c>
@@ -5099,7 +5102,7 @@
       <c r="AJ7" s="154"/>
       <c r="AK7" s="96"/>
     </row>
-    <row r="8" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="23.25" customHeight="1">
       <c r="A8" s="111" t="s">
         <v>6</v>
       </c>
@@ -5150,12 +5153,12 @@
       <c r="AJ8" s="42"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="23.25" customHeight="1">
       <c r="A9" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="374"/>
-      <c r="C9" s="375"/>
+      <c r="B9" s="388"/>
+      <c r="C9" s="389"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -5191,7 +5194,7 @@
       <c r="AJ9" s="42"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="23.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5245,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="22.5" customHeight="1">
       <c r="A11" s="114" t="s">
         <v>8</v>
       </c>
@@ -5293,7 +5296,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="21.75" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>9</v>
       </c>
@@ -5336,7 +5339,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="21" customHeight="1">
       <c r="A13" s="114" t="s">
         <v>31</v>
       </c>
@@ -5385,7 +5388,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
       <c r="A14" s="294" t="s">
         <v>32</v>
       </c>
@@ -5394,8 +5397,8 @@
       <c r="D14" s="148"/>
       <c r="E14" s="148"/>
       <c r="F14" s="148"/>
-      <c r="G14" s="376"/>
-      <c r="H14" s="377"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="391"/>
       <c r="I14" s="291" t="s">
         <v>53</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>53</v>
       </c>
       <c r="K14" s="55">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
@@ -5446,7 +5449,7 @@
       <c r="AL14" s="14"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="23.25" customHeight="1">
       <c r="A15" s="238" t="s">
         <v>33</v>
       </c>
@@ -5495,7 +5498,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="14"/>
     </row>
-    <row r="16" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="21.75" customHeight="1">
       <c r="A16" s="112" t="s">
         <v>10</v>
       </c>
@@ -5542,7 +5545,7 @@
       <c r="AL16" s="14"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="21.75" customHeight="1">
       <c r="A17" s="112" t="s">
         <v>41</v>
       </c>
@@ -5585,7 +5588,7 @@
       <c r="AL17" s="14"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="21.75" customHeight="1" thickBot="1">
       <c r="A18" s="294" t="s">
         <v>28</v>
       </c>
@@ -5632,7 +5635,7 @@
       <c r="AL18" s="14"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="A19" s="114" t="s">
         <v>29</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="A20" s="112" t="s">
         <v>66</v>
       </c>
@@ -5723,7 +5726,7 @@
       <c r="AK20" s="96"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="A21" s="295" t="s">
         <v>67</v>
       </c>
@@ -5781,7 +5784,7 @@
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
     </row>
-    <row r="22" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="21.75" customHeight="1">
       <c r="A22" s="112" t="s">
         <v>68</v>
       </c>
@@ -5823,7 +5826,7 @@
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
     </row>
-    <row r="23" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="24" customHeight="1" thickBot="1">
       <c r="A23" s="157" t="s">
         <v>69</v>
       </c>
@@ -5867,7 +5870,7 @@
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="A24" s="158" t="s">
         <v>37</v>
       </c>
@@ -5928,7 +5931,7 @@
       <c r="V24" s="281" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="391"/>
+      <c r="W24" s="371"/>
       <c r="X24" s="254" t="s">
         <v>55</v>
       </c>
@@ -5951,7 +5954,7 @@
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
     </row>
-    <row r="25" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="21.75" customHeight="1">
       <c r="A25" s="114" t="s">
         <v>36</v>
       </c>
@@ -6037,7 +6040,7 @@
       <c r="AK25" s="16"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="22.5" customHeight="1">
       <c r="A26" s="114" t="s">
         <v>11</v>
       </c>
@@ -6087,7 +6090,7 @@
       <c r="AK26" s="19"/>
       <c r="AL26" s="16"/>
     </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
       <c r="A27" s="111" t="s">
         <v>12</v>
       </c>
@@ -6171,7 +6174,7 @@
       <c r="AK27" s="20"/>
       <c r="AL27" s="16"/>
     </row>
-    <row r="28" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="20.25" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -6213,7 +6216,7 @@
       <c r="AK28" s="21"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="21" customHeight="1">
       <c r="A29" s="114" t="s">
         <v>14</v>
       </c>
@@ -6255,7 +6258,7 @@
       <c r="AK29" s="177"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="24" customHeight="1" thickBot="1">
       <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
@@ -6297,7 +6300,7 @@
       <c r="AK30" s="178"/>
       <c r="AL30" s="2"/>
     </row>
-    <row r="31" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="23.25" customHeight="1">
       <c r="A31" s="239" t="s">
         <v>49</v>
       </c>
@@ -6351,7 +6354,7 @@
       <c r="AK31" s="18"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
       <c r="A32" s="111" t="s">
         <v>48</v>
       </c>
@@ -6405,7 +6408,7 @@
       <c r="AK32" s="18"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="24.75" customHeight="1">
       <c r="A33" s="159" t="s">
         <v>27</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="21" customHeight="1">
       <c r="A34" s="293" t="s">
         <v>17</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="22.5" customHeight="1">
       <c r="A35" s="240" t="s">
         <v>18</v>
       </c>
@@ -6547,7 +6550,7 @@
       </c>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="22.5" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
@@ -6617,7 +6620,7 @@
       <c r="AK36" s="185"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="22.5" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
@@ -6705,7 +6708,7 @@
       <c r="AK37" s="185"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="23.25" customHeight="1">
       <c r="A38" s="79" t="s">
         <v>73</v>
       </c>
@@ -6799,10 +6802,10 @@
       <c r="AE38" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="120" t="s">
+      <c r="AF38" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="AG38" s="144" t="s">
+      <c r="AG38" s="213" t="s">
         <v>54</v>
       </c>
       <c r="AH38" s="144" t="s">
@@ -6817,7 +6820,7 @@
       <c r="AK38" s="96"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="21.75" customHeight="1">
       <c r="A39" s="240" t="s">
         <v>35</v>
       </c>
@@ -6859,7 +6862,7 @@
       <c r="AK39" s="80"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="24.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="160"/>
       <c r="C40" s="73"/>
@@ -6899,7 +6902,7 @@
       <c r="AK40" s="178"/>
       <c r="AL40" s="14"/>
     </row>
-    <row r="41" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="25.5" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="46"/>
       <c r="C41" s="72"/>
@@ -6939,7 +6942,7 @@
       <c r="AK41" s="177"/>
       <c r="AL41" s="16"/>
     </row>
-    <row r="42" spans="1:38" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" ht="24.75" customHeight="1" thickBot="1">
       <c r="A42" s="169" t="s">
         <v>26</v>
       </c>
@@ -6981,7 +6984,7 @@
       <c r="AK42" s="97"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="10.5" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
@@ -7021,64 +7024,64 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="371" t="s">
+      <c r="B44" s="385" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="372"/>
-      <c r="D44" s="372"/>
-      <c r="E44" s="372"/>
-      <c r="F44" s="372"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="378"/>
-      <c r="I44" s="371" t="s">
+      <c r="C44" s="386"/>
+      <c r="D44" s="386"/>
+      <c r="E44" s="386"/>
+      <c r="F44" s="386"/>
+      <c r="G44" s="386"/>
+      <c r="H44" s="392"/>
+      <c r="I44" s="385" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="372"/>
-      <c r="N44" s="372"/>
-      <c r="O44" s="372"/>
-      <c r="P44" s="371" t="s">
+      <c r="J44" s="386"/>
+      <c r="K44" s="386"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="385" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="372"/>
-      <c r="R44" s="372"/>
-      <c r="S44" s="372"/>
-      <c r="T44" s="372"/>
-      <c r="U44" s="372"/>
-      <c r="V44" s="378"/>
-      <c r="W44" s="371" t="s">
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
+      <c r="S44" s="386"/>
+      <c r="T44" s="386"/>
+      <c r="U44" s="386"/>
+      <c r="V44" s="392"/>
+      <c r="W44" s="385" t="s">
         <v>12</v>
       </c>
-      <c r="X44" s="372"/>
-      <c r="Y44" s="372"/>
-      <c r="Z44" s="372"/>
-      <c r="AA44" s="372"/>
-      <c r="AB44" s="372"/>
-      <c r="AC44" s="372"/>
-      <c r="AD44" s="371" t="s">
+      <c r="X44" s="386"/>
+      <c r="Y44" s="386"/>
+      <c r="Z44" s="386"/>
+      <c r="AA44" s="386"/>
+      <c r="AB44" s="386"/>
+      <c r="AC44" s="386"/>
+      <c r="AD44" s="385" t="s">
         <v>57</v>
       </c>
-      <c r="AE44" s="372"/>
-      <c r="AF44" s="372"/>
-      <c r="AG44" s="372"/>
-      <c r="AH44" s="372"/>
-      <c r="AI44" s="372"/>
-      <c r="AJ44" s="373"/>
+      <c r="AE44" s="386"/>
+      <c r="AF44" s="386"/>
+      <c r="AG44" s="386"/>
+      <c r="AH44" s="386"/>
+      <c r="AI44" s="386"/>
+      <c r="AJ44" s="387"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:38" ht="26.25">
       <c r="A47" s="330" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:38" ht="26.25">
       <c r="A48" s="330" t="s">
         <v>72</v>
       </c>
@@ -7120,259 +7123,266 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="20.25">
       <c r="A49" s="331">
         <v>9.9999999999999998E-20</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="20.25">
       <c r="A50" s="332">
         <v>2.9999999999999999E-21</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="P58" s="34"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="P59" s="34"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="P60" s="34"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="P64" s="34"/>
     </row>
-    <row r="65" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:19">
       <c r="P65" s="34"/>
     </row>
-    <row r="66" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="16:19">
       <c r="P66" s="34"/>
       <c r="Q66" s="34"/>
     </row>
-    <row r="67" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="16:19">
       <c r="P67" s="34"/>
     </row>
-    <row r="68" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:19">
       <c r="Q68" s="34"/>
     </row>
-    <row r="70" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:19">
       <c r="R70" s="34"/>
     </row>
-    <row r="71" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:19">
       <c r="Q71" s="34"/>
     </row>
-    <row r="72" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:19">
       <c r="P72" s="34"/>
       <c r="Q72" s="34"/>
     </row>
-    <row r="73" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="16:19">
       <c r="Q73" s="34"/>
     </row>
-    <row r="74" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="16:19">
       <c r="Q74" s="34"/>
     </row>
-    <row r="80" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="16:19">
       <c r="S80" s="34"/>
     </row>
-    <row r="81" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="17:19">
       <c r="R81" s="34"/>
     </row>
-    <row r="82" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:19">
       <c r="R82" s="34"/>
     </row>
-    <row r="83" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:19">
       <c r="R83" s="34"/>
     </row>
-    <row r="84" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:19">
       <c r="R84" s="34"/>
     </row>
-    <row r="85" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:19">
       <c r="R85" s="34"/>
     </row>
-    <row r="86" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="17:19">
       <c r="Q86" s="34"/>
       <c r="R86" s="34"/>
     </row>
-    <row r="87" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="17:19">
       <c r="Q87" s="34"/>
       <c r="R87" s="34"/>
     </row>
-    <row r="88" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:19">
       <c r="R88" s="34"/>
     </row>
-    <row r="89" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:19">
       <c r="R89" s="34"/>
     </row>
-    <row r="90" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:19">
       <c r="R90" s="34"/>
     </row>
-    <row r="91" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:19">
       <c r="R91" s="34"/>
     </row>
-    <row r="92" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:19">
       <c r="S92" s="34"/>
     </row>
-    <row r="93" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:19">
       <c r="R93" s="34"/>
       <c r="S93" s="34"/>
     </row>
-    <row r="94" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:19">
       <c r="R94" s="34"/>
     </row>
-    <row r="96" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:19">
       <c r="R96" s="34"/>
     </row>
-    <row r="98" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="15:22">
       <c r="P98" s="34"/>
       <c r="Q98" s="34"/>
     </row>
-    <row r="99" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="15:22">
       <c r="Q99" s="34"/>
     </row>
-    <row r="100" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="15:22">
       <c r="Q100" s="34"/>
     </row>
-    <row r="101" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="15:22">
       <c r="Q101" s="34"/>
       <c r="R101" s="34"/>
     </row>
-    <row r="102" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:22">
       <c r="O102" s="34"/>
       <c r="Q102" s="34"/>
     </row>
-    <row r="103" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:22">
       <c r="O103" s="34"/>
       <c r="Q103" s="34"/>
       <c r="R103" s="34"/>
     </row>
-    <row r="104" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:22">
       <c r="P104" s="34"/>
       <c r="Q104" s="34"/>
       <c r="R104" s="34"/>
     </row>
-    <row r="105" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:22">
       <c r="O105" s="34"/>
       <c r="Q105" s="34"/>
       <c r="R105" s="34"/>
     </row>
-    <row r="106" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="15:22">
       <c r="O106" s="34"/>
       <c r="Q106" s="34"/>
       <c r="R106" s="34"/>
     </row>
-    <row r="107" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="15:22">
       <c r="O107" s="34"/>
       <c r="Q107" s="34"/>
       <c r="R107" s="34"/>
     </row>
-    <row r="108" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:22">
       <c r="P108" s="34"/>
       <c r="Q108" s="34"/>
       <c r="R108" s="34"/>
       <c r="V108" s="34"/>
     </row>
-    <row r="109" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="15:22">
       <c r="P109" s="34"/>
       <c r="Q109" s="34"/>
     </row>
-    <row r="110" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="15:22">
       <c r="P110" s="34"/>
       <c r="Q110" s="34"/>
     </row>
-    <row r="111" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="15:22">
       <c r="P111" s="34"/>
       <c r="Q111" s="34"/>
       <c r="S111" s="34"/>
     </row>
-    <row r="112" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="15:22">
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
       <c r="R112" s="34"/>
       <c r="S112" s="34"/>
     </row>
-    <row r="113" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:24">
       <c r="O113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:24">
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:24">
       <c r="P115" s="34"/>
       <c r="Q115" s="34"/>
       <c r="R115" s="34"/>
       <c r="T115" s="34"/>
     </row>
-    <row r="116" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:24">
       <c r="Q116" s="34"/>
       <c r="R116" s="34"/>
     </row>
-    <row r="117" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:24">
       <c r="Q117" s="34"/>
     </row>
-    <row r="118" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:24">
       <c r="Q118" s="34"/>
       <c r="T118" s="34"/>
     </row>
-    <row r="119" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:24">
       <c r="P119" s="34"/>
       <c r="Q119" s="34"/>
       <c r="R119" s="34"/>
     </row>
-    <row r="120" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:24">
       <c r="R120" s="34"/>
     </row>
-    <row r="121" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:24">
       <c r="R121" s="34"/>
     </row>
-    <row r="122" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:24">
       <c r="R122" s="34"/>
       <c r="U122" s="34"/>
     </row>
-    <row r="123" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:24">
       <c r="R123" s="34"/>
       <c r="V123" s="34"/>
       <c r="W123" s="34"/>
       <c r="X123" s="34"/>
     </row>
-    <row r="124" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:24">
       <c r="R124" s="34"/>
       <c r="V124" s="34"/>
       <c r="W124" s="34"/>
       <c r="X124" s="34"/>
     </row>
-    <row r="125" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:24">
       <c r="V125" s="34"/>
     </row>
-    <row r="126" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:24">
       <c r="R126" s="34"/>
       <c r="V126" s="34"/>
     </row>
-    <row r="127" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:24">
       <c r="R127" s="34"/>
       <c r="V127" s="34"/>
     </row>
-    <row r="128" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:24">
       <c r="R128" s="34"/>
     </row>
-    <row r="129" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:18">
       <c r="R129" s="34"/>
     </row>
-    <row r="130" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="18:18">
       <c r="R130" s="34"/>
     </row>
-    <row r="131" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="18:18">
       <c r="R131" s="34"/>
     </row>
-    <row r="132" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:18">
       <c r="R132" s="34"/>
     </row>
-    <row r="133" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="18:18">
       <c r="R133" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AD44:AJ44"/>
+    <mergeCell ref="W44:AC44"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="P44:V44"/>
     <mergeCell ref="S7:V7"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
@@ -7380,13 +7390,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AD44:AJ44"/>
-    <mergeCell ref="W44:AC44"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="P44:V44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7396,14 +7399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
@@ -7411,21 +7414,21 @@
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="18.75">
       <c r="B1" s="192"/>
-      <c r="C1" s="390" t="s">
+      <c r="C1" s="393" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="192"/>
       <c r="C2" s="325"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="192"/>
       <c r="C3" s="39"/>
       <c r="D3" s="22" t="s">
@@ -7435,13 +7438,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="192"/>
       <c r="C4" s="193"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="192"/>
       <c r="C5" s="194"/>
       <c r="D5" s="22" t="s">
@@ -7451,13 +7454,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="192"/>
       <c r="C6" s="325"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="192"/>
       <c r="C7" s="36"/>
       <c r="D7" s="22" t="s">
@@ -7467,13 +7470,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="192"/>
       <c r="C8" s="325"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="192"/>
       <c r="C9" s="35"/>
       <c r="D9" s="195" t="s">
@@ -7483,13 +7486,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="192"/>
       <c r="C10" s="325"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="192"/>
       <c r="C11" s="24"/>
       <c r="D11" s="22" t="s">
@@ -7499,13 +7502,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="192"/>
       <c r="C12" s="196"/>
       <c r="D12" s="197"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="192"/>
       <c r="C13" s="110"/>
       <c r="D13" s="22" t="s">
@@ -7515,14 +7518,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
       <c r="B14" s="192"/>
       <c r="C14" s="326"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="192"/>
       <c r="C15" s="25"/>
       <c r="D15" s="22" t="s">
@@ -7532,13 +7535,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="192"/>
       <c r="C16" s="327"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="2:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="19.5" thickTop="1" thickBot="1">
       <c r="B17" s="192"/>
       <c r="C17" s="328"/>
       <c r="D17" s="22" t="s">
@@ -7548,13 +7551,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="19.5" thickTop="1" thickBot="1">
       <c r="B18" s="192"/>
       <c r="C18" s="325"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="18.75" thickBot="1">
       <c r="B19" s="192"/>
       <c r="C19" s="26"/>
       <c r="D19" s="22" t="s">
@@ -7564,13 +7567,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="18.75" thickBot="1">
       <c r="B20" s="192"/>
       <c r="C20" s="325"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="18.75" thickBot="1">
       <c r="B21" s="192"/>
       <c r="C21" s="27"/>
       <c r="D21" s="22" t="s">
@@ -7580,13 +7583,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="18.75" thickBot="1">
       <c r="B22" s="192"/>
       <c r="C22" s="325"/>
       <c r="D22" s="329"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="18.75" thickBot="1">
       <c r="B23" s="192"/>
       <c r="C23" s="41"/>
       <c r="D23" s="22" t="s">
@@ -7596,13 +7599,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="18.75" thickBot="1">
       <c r="B24" s="192"/>
       <c r="C24" s="325"/>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="18.75" thickBot="1">
       <c r="B25" s="192"/>
       <c r="C25" s="28"/>
       <c r="D25" s="22" t="s">
@@ -7612,13 +7615,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="18.75" thickBot="1">
       <c r="B26" s="192"/>
       <c r="C26" s="325"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="18.75" thickBot="1">
       <c r="B27" s="192"/>
       <c r="C27" s="29"/>
       <c r="D27" s="22" t="s">
@@ -7628,13 +7631,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15.75" thickBot="1">
       <c r="B28" s="192"/>
       <c r="C28" s="325"/>
       <c r="D28" s="325"/>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="21" thickBot="1">
       <c r="B29" s="192"/>
       <c r="C29" s="30"/>
       <c r="D29" s="22" t="s">
@@ -7644,13 +7647,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15.75" thickBot="1">
       <c r="B30" s="192"/>
       <c r="C30" s="325"/>
       <c r="D30" s="325"/>
       <c r="E30" s="325"/>
     </row>
-    <row r="31" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18.75" thickBot="1">
       <c r="B31" s="192"/>
       <c r="C31" s="38"/>
       <c r="D31" s="22" t="s">
@@ -7660,13 +7663,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15.75" thickBot="1">
       <c r="B32" s="192"/>
       <c r="C32" s="325"/>
       <c r="D32" s="325"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="18.75" thickBot="1">
       <c r="B33" s="192"/>
       <c r="C33" s="31"/>
       <c r="D33" s="22" t="s">
@@ -7676,13 +7679,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1">
       <c r="B34" s="192"/>
       <c r="C34" s="325"/>
       <c r="D34" s="325"/>
       <c r="E34" s="325"/>
     </row>
-    <row r="35" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="18.75" thickBot="1">
       <c r="B35" s="192"/>
       <c r="C35" s="32"/>
       <c r="D35" s="22" t="s">
@@ -7692,12 +7695,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15.75" thickBot="1">
       <c r="C36" s="325"/>
       <c r="D36" s="325"/>
       <c r="E36" s="325"/>
     </row>
-    <row r="37" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="18.75" thickBot="1">
       <c r="C37" s="198"/>
       <c r="D37" s="22" t="s">
         <v>21</v>
@@ -7706,12 +7709,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15.75" thickBot="1">
       <c r="C38" s="192"/>
       <c r="D38" s="192"/>
       <c r="E38" s="192"/>
     </row>
-    <row r="39" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="18.75" thickBot="1">
       <c r="C39" s="318"/>
       <c r="D39" s="22" t="s">
         <v>21</v>
